--- a/biology/Zoologie/Conus_hamamotoi/Conus_hamamotoi.xlsx
+++ b/biology/Zoologie/Conus_hamamotoi/Conus_hamamotoi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus hamamotoi est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 18 mm et 24 mm.
 </t>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large du Japon, de la Nouvelle-Calédonie et dans la mer de Corail.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est connue du Japon et de la Nouvelle-Calédonie. Il n'existe aucune donnée sur la population de cette espèce, et elle n'est connue que par moins de 10 spécimens. L'extrême rareté de cette espèce sur le marché indique un possible manque d'abondance à l'état sauvage, malgré l'habitat relativement inaccessible dans lequel elle vit. Elle demande des recherches supplémentaires. Nous avons inscrit cette espèce comme étant insuffisamment documentée[1].
 </t>
         </is>
       </c>
@@ -573,20 +587,131 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est connue du Japon et de la Nouvelle-Calédonie. Il n'existe aucune donnée sur la population de cette espèce, et elle n'est connue que par moins de 10 spécimens. L'extrême rareté de cette espèce sur le marché indique un possible manque d'abondance à l'état sauvage, malgré l'habitat relativement inaccessible dans lequel elle vit. Elle demande des recherches supplémentaires. Nous avons inscrit cette espèce comme étant insuffisamment documentée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_hamamotoi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_hamamotoi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus hamamotoi a été décrite pour la première fois en 1984 par les malacologistes japonais Shigeo Yoshiba[2] et Yasuo Koyama[3] dans la publication intitulée « Venus »[4],[5].
-Synonymes
-Conus (Splinoconus) hamamotoi Yoshiba &amp; Koyama, 1984 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus hamamotoi a été décrite pour la première fois en 1984 par les malacologistes japonais Shigeo Yoshiba et Yasuo Koyama dans la publication intitulée « Venus »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_hamamotoi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_hamamotoi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Splinoconus) hamamotoi Yoshiba &amp; Koyama, 1984 · appellation alternative
 Kioconus (Isoconus) hamamotoi (Yoshiba &amp; Koyama, 1984) · non accepté
 Nitidoconus hamamotoi (Yoshiba &amp; Koyama, 1984) · non accepté
-Rolaniconus hamamotoi (Yoshiba &amp; Koyama, 1984) · non accepté
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus hamamotoi dans les principales bases sont les suivants :
+Rolaniconus hamamotoi (Yoshiba &amp; Koyama, 1984) · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conus_hamamotoi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_hamamotoi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus hamamotoi dans les principales bases sont les suivants :
 BOLD : 596864 - CoL : XXJK - GBIF : 6510941 - iNaturalist : 432004 - IRMNG : 11895526 - TAXREF : 138089 - UICN : 192454 - WoRMS : 428146
 </t>
         </is>
